--- a/File/order.xlsx
+++ b/File/order.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\JBS\schedule\File\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{714D7C5F-257E-45BD-84FE-2466657B3649}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{888C3BBE-9054-4625-9E3E-F7DDAFD65B78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>case_name</t>
   </si>
@@ -34,8 +34,33 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>查询下单时间当天是否多生成了销售出库单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询下单时间前一天是否多生成了销售出库单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询下单时间前七天到当天是否多生成了销售出库单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询下单时间当天是否多生成了系统订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询下单时间前一天是否多生成了系统订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询下单时间前七天到当天是否多生成了系统订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>SELECT
 	tt.source_order_id,
+	GROUP_CONCAT(tt.order_id),
 	sum( tt.dap_amount ),
 	ff.receivable_fee,
 	tt.trade_time 
@@ -43,8 +68,7 @@
 	oms_ops.trade_order tt
 	JOIN oms_order.oms_trade ff ON tt.source_order_id = ff.source_order_id 
 WHERE
-	date(tt.trade_time) &gt;= date_sub(CURDATE(),INTERVAL 7 day)
-	AND	date( tt.trade_time ) &lt;= date_sub( CURDATE( ), INTERVAL 0 DAY ) 
+	date(tt.trade_time) = date_sub(CURDATE(),INTERVAL 0 day)
 	AND tt.shop_id IN ( 71629, 3709218522, 10255239 ) 
 	AND ff.receivable_fee != 0 
 GROUP BY
@@ -56,14 +80,56 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>查询下单时间当天是否多生成了销售出库单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SELECT
-	tt.delivery_order_id,
+    <t>SELECT
+	tt.source_order_id,
+	GROUP_CONCAT(tt.order_id),
+	sum( tt.dap_amount ),
+	ff.receivable_fee,
+	tt.trade_time 
+FROM
+	oms_ops.trade_order tt
+	JOIN oms_order.oms_trade ff ON tt.source_order_id = ff.source_order_id 
+WHERE
+	date(tt.trade_time) = date_sub(CURDATE(),INTERVAL 1 day)
+	AND tt.shop_id IN ( 71629, 3709218522, 10255239 ) 
+	AND ff.receivable_fee != 0 
+GROUP BY
+	tt.source_order_id 
+HAVING
+	sum( tt.dap_amount ) &gt;= ff.receivable_fee * 2 
+ORDER BY
+	tt.trade_time DESC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT
+	tt.source_order_id,
+	GROUP_CONCAT(tt.order_id),
+	sum(tt.dap_amount),
+	ff.receivable_fee,
+	tt.create_time,
+	tt.trade_time 
+FROM
+	oms_ops.trade_order tt
+	JOIN oms_order.oms_trade ff ON tt.source_order_id = ff.source_order_id 
+WHERE
+	date(tt.trade_time) &gt;= date_sub(CURDATE(),INTERVAL 7 day)
+	AND	date( tt.trade_time ) &lt;= date_sub( CURDATE(), INTERVAL 0 DAY ) 
+	AND tt.shop_id IN ( 71629, 3709218522, 10255239 ) 
+	AND ff.receivable_fee != 0 
+GROUP BY
+	tt.source_order_id
+HAVING
+	sum(tt.dap_amount) &gt;= ff.receivable_fee * 2 
+ORDER BY
+	tt.trade_time DESC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT
 	tt.source_order_id,
 	tt.order_id,
+	GROUP_CONCAT(tt.delivery_order_id),
 	tt.order_status,
 	count( tt.order_id ) 
 FROM
@@ -71,7 +137,7 @@
 WHERE
 	tt.order_status IN ( 1, 2, 3, 4, 5, 7 ) 
 	AND tt.shop_code IN ( "SH005", "SH009", "SH014", "SH035", "SH063" ) 
-	AND date( tt.trade_time ) = date_sub( CURDATE( ), INTERVAL 0 DAY ) 
+	AND date( tt.trade_time ) = date_sub(CURDATE(), INTERVAL 0 DAY ) 
 GROUP BY
 	tt.order_id 
 HAVING
@@ -81,14 +147,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>查询下单时间前一天是否多生成了销售出库单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SELECT
-	tt.delivery_order_id,
+    <t>SELECT
 	tt.source_order_id,
 	tt.order_id,
+	GROUP_CONCAT(tt.delivery_order_id),
 	tt.order_status,
 	count( tt.order_id ) 
 FROM
@@ -96,7 +158,7 @@
 WHERE
 	tt.order_status IN ( 1, 2, 3, 4, 5, 7 ) 
 	AND tt.shop_code IN ( "SH005", "SH009", "SH014", "SH035", "SH063" ) 
-	AND date( tt.trade_time ) = date_sub( CURDATE( ), INTERVAL 1 DAY ) 
+	AND date( tt.trade_time ) = date_sub( CURDATE(), INTERVAL 1 DAY ) 
 GROUP BY
 	tt.order_id 
 HAVING
@@ -106,14 +168,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>查询下单时间前七天到当天是否多生成了销售出库单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SELECT
-	tt.delivery_order_id,
+    <t>SELECT
 	tt.source_order_id,
 	tt.order_id,
+	GROUP_CONCAT(tt.delivery_order_id),
 	tt.order_status,
 	count( tt.order_id ) 
 FROM
@@ -132,57 +190,68 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>查询下单时间当天是否多生成了系统订单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询下单时间前一天是否多生成了系统订单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询下单时间前七天到当天是否多生成了系统订单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SELECT
-	tt.source_order_id,
-	sum( tt.dap_amount ),
-	ff.receivable_fee,
-	tt.trade_time 
-FROM
-	oms_ops.trade_order tt
-	JOIN oms_order.oms_trade ff ON tt.source_order_id = ff.source_order_id 
-WHERE
-	date(tt.trade_time)  = date_sub(CURDATE(),INTERVAL 0 day)
-	AND tt.shop_id IN ( 71629, 3709218522, 10255239 ) 
-	AND ff.receivable_fee != 0 
-GROUP BY
-	tt.source_order_id 
-HAVING
-	sum( tt.dap_amount ) &gt;= ff.receivable_fee * 2 
-ORDER BY
-	tt.trade_time DESC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SELECT
-	tt.source_order_id,
-	sum( tt.dap_amount ),
-	ff.receivable_fee,
-	tt.trade_time 
-FROM
-	oms_ops.trade_order tt
-	JOIN oms_order.oms_trade ff ON tt.source_order_id = ff.source_order_id 
-WHERE
-	date(tt.trade_time)  = date_sub(CURDATE(),INTERVAL 1 day)
-	AND tt.shop_id IN ( 71629, 3709218522, 10255239 ) 
-	AND ff.receivable_fee != 0 
-GROUP BY
-	tt.source_order_id 
-HAVING
-	sum( tt.dap_amount ) &gt;= ff.receivable_fee * 2 
-ORDER BY
-	tt.trade_time DESC</t>
+    <t>查询下单当天原始订单没有同步到系统订单数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT
+	group_concat( tt.source_order_id ) 
+FROM
+	oms_ops.trade_order tt 
+WHERE
+	date( tt.trade_time ) = date_sub( CURDATE( ), INTERVAL 0 DAY ) UNION
+SELECT
+	group_concat( ff.source_order_id ) 
+FROM
+	oms_order.oms_trade ff 
+WHERE
+	date( ff.trade_time ) = date_sub( CURDATE( ), INTERVAL 0 DAY ) 
+	AND ff.match_count = 0 
+	AND ff.STATUS != "PREORDAIN"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询下单前一天原始订单没有同步到系统订单数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT
+	group_concat( tt.source_order_id ) 
+FROM
+	oms_ops.trade_order tt 
+WHERE
+	date( tt.trade_time ) = date_sub( CURDATE( ), INTERVAL 1 DAY ) UNION
+SELECT
+	group_concat( ff.source_order_id ) 
+FROM
+	oms_order.oms_trade ff 
+WHERE
+	date( ff.trade_time ) = date_sub( CURDATE( ), INTERVAL 1 DAY ) 
+	AND ff.match_count = 0 
+	AND ff.STATUS != "PREORDAIN"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询下单前七天到当天原始订单没有同步到系统订单数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT
+	group_concat( tt.source_order_id ) 
+FROM
+	oms_ops.trade_order tt 
+WHERE
+	date( tt.trade_time ) &gt;= date_sub( CURDATE( ), INTERVAL 7 DAY )
+	AND	date( tt.trade_time ) &lt;= date_sub( CURDATE( ), INTERVAL 0 DAY ) UNION
+SELECT
+	group_concat( ff.source_order_id ) 
+FROM
+	oms_order.oms_trade ff 
+WHERE
+	date( ff.trade_time ) &gt;= date_sub( CURDATE( ), INTERVAL 7 DAY )
+	AND	date( ff.trade_time ) &lt;= date_sub( CURDATE( ), INTERVAL 0 DAY )
+	AND ff.match_count = 0 
+	AND ff.STATUS != "PREORDAIN"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -520,13 +589,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40AB15A5-AF61-4DD6-BDAC-C773A079DD60}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="53.75" style="4" customWidth="1"/>
     <col min="2" max="2" width="68.375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
@@ -540,57 +609,77 @@
     </row>
     <row r="2" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="9" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
     <row r="11" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/File/order.xlsx
+++ b/File/order.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\JBS\schedule\File\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{888C3BBE-9054-4625-9E3E-F7DDAFD65B78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC936AF1-1FAC-40CF-A5CA-6E61C2D64AEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Order" sheetId="5" r:id="rId1"/>
+    <sheet name="Es_Cmp" sheetId="6" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>case_name</t>
   </si>
@@ -252,6 +253,39 @@
 	AND	date( ff.trade_time ) &lt;= date_sub( CURDATE( ), INTERVAL 0 DAY )
 	AND ff.match_count = 0 
 	AND ff.STATUS != "PREORDAIN"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>es_search</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT
+	* 
+FROM
+	oms_ops.trade_order tt 
+WHERE
+	tt.trade_time  &gt;= date_sub(now( ), INTERVAL 2 HOUR ) 
+	AND tt.trade_time &lt;=date_sub(now( ), INTERVAL 1 HOUR ) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "query":{
+        "range":{
+            "tradeTime":{
+                "gte":last_Twohour_time,
+                "lte":last_hour_time
+            }
+        }
+    },
+    "from":0,
+    "size":10000
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询当前时间前两小时到一小时系统订单和ES数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -589,8 +623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40AB15A5-AF61-4DD6-BDAC-C773A079DD60}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -699,4 +733,48 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F49C775B-80B6-4004-BACB-F9E18F764F07}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="41.5" customWidth="1"/>
+    <col min="2" max="2" width="56.875" customWidth="1"/>
+    <col min="3" max="3" width="50.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="171" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/File/order.xlsx
+++ b/File/order.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\JBS\schedule\File\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC936AF1-1FAC-40CF-A5CA-6E61C2D64AEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA623E79-352C-4B6D-9385-C6A826AEFD4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Order" sheetId="5" r:id="rId1"/>
-    <sheet name="Es_Cmp" sheetId="6" r:id="rId2"/>
+    <sheet name="TradeOder_Es_Cmp" sheetId="6" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -740,7 +740,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/File/order.xlsx
+++ b/File/order.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\JBS\schedule\File\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA623E79-352C-4B6D-9385-C6A826AEFD4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69D519D-9BC2-4232-8358-456B30AD2304}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Order" sheetId="5" r:id="rId1"/>
     <sheet name="TradeOder_Es_Cmp" sheetId="6" r:id="rId2"/>
+    <sheet name="DeliveryOder_Es_Cmp" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>case_name</t>
   </si>
@@ -286,6 +287,21 @@
   </si>
   <si>
     <t>查询当前时间前两小时到一小时系统订单和ES数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询当前时间前两小时到一小时销售出库单和ES数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT
+	* 
+FROM
+	oms_ops.delivery_order tt 
+WHERE
+	tt.trade_time  &gt;= date_sub(now( ), INTERVAL 2 HOUR ) 
+	AND tt.trade_time &lt;=date_sub(now( ), INTERVAL 1 HOUR )
+	ORDER BY tt.trade_time desc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -740,7 +756,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -777,4 +793,48 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23FADD98-4FDC-4634-A9E7-C2EB555295F9}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="41.5" customWidth="1"/>
+    <col min="2" max="2" width="56.875" customWidth="1"/>
+    <col min="3" max="3" width="50.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="171" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>